--- a/JavaBatch8/src/com/syntax/class36/TestData.xlsx
+++ b/JavaBatch8/src/com/syntax/class36/TestData.xlsx
@@ -20,30 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">firstName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">FirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qasim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdoan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parluk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali</t>
   </si>
 </sst>
 </file>
@@ -211,13 +235,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="13.63"/>
   </cols>
@@ -236,7 +260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -244,13 +268,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
@@ -258,24 +282,108 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>30000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>66000</v>
+      <c r="D9" s="0" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
